--- a/HealthCareDatset2/Refinement.xlsx
+++ b/HealthCareDatset2/Refinement.xlsx
@@ -159,9 +159,6 @@
                 <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -172,19 +169,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>75</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>138</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -242,9 +236,6 @@
                 <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -255,19 +246,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>220</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>71</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -339,9 +327,6 @@
                 <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -352,19 +337,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>97.05</c:v>
+                  <c:v>0.57899999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>97.91</c:v>
+                  <c:v>0.71199999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98.56</c:v>
+                  <c:v>0.69399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>99.07</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>99.7</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -391,7 +373,7 @@
         <c:axId val="1782645535"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5"/>
+          <c:max val="4"/>
           <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -507,6 +489,8 @@
         <c:axId val="1782645119"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.8"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -615,7 +599,7 @@
         <c:crossAx val="1782645535"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="25"/>
+        <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1814294959"/>
@@ -698,8 +682,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.2281106736657918"/>
-          <c:y val="9.1145013123359583E-2"/>
+          <c:x val="0.83557535037849995"/>
+          <c:y val="0.37774932339065093"/>
           <c:w val="0.1618536872080179"/>
           <c:h val="0.21028184561042018"/>
         </c:manualLayout>
@@ -1326,13 +1310,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:colOff>390525</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1619,10 +1603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1646,13 +1630,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>75</v>
+        <v>0.42</v>
       </c>
       <c r="C2">
-        <v>220</v>
+        <v>0.42</v>
       </c>
       <c r="D2">
-        <v>97.05</v>
+        <v>0.57899999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1660,13 +1644,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>138</v>
+        <v>0.76</v>
       </c>
       <c r="C3">
-        <v>71</v>
+        <v>0.03</v>
       </c>
       <c r="D3">
-        <v>97.91</v>
+        <v>0.71199999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1674,13 +1658,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>63</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C4">
-        <v>81</v>
+        <v>0.18</v>
       </c>
       <c r="D4">
-        <v>98.56</v>
+        <v>0.69399999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1688,27 +1672,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>63</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D5">
-        <v>99.07</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>30</v>
-      </c>
-      <c r="D6">
-        <v>99.7</v>
+        <v>0.748</v>
       </c>
     </row>
   </sheetData>
